--- a/biology/Botanique/Égilope/Égilope.xlsx
+++ b/biology/Botanique/Égilope/Égilope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89gilope</t>
+          <t>Égilope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegilops
 Aegilops, l’Égilope, est un genre de plantes monocotylédones de la  famille des Poaceae, sous-famille des Pooideae, originaire du bassin méditerranéen et d'Asie occidentale.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89gilope</t>
+          <t>Égilope</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Aegilops peuvent s'hybrider avec des espèces des genres  Triticum (× Aegilotriticum Wagner ex Tschermak), Secale (× Aegilosecale Ciferri &amp; Giacom.), Dasypyrum, Elytrigia[1].
-Le genre Aegilops est important dans l’évolution du blé pour son rôle dans deux événements d’hybridation importants. L’engrain sauvage (Triticum dicoccoides et Triticum araraticum) est le résultat de l’hybridation d’un blé sauvage, Triticum urartu, et d’une égilope encore non identifiée, probablement similaire à Aegilops speltoides. Le genre Aegilops a également été utilisé pour transférer par des techniques de transgénèse et d'hybridation, des fragments chromosomiques de résistance à plusieurs maladies, dont la rouille brune du blé et l'oïdium du blé, au blé tendre pour créer la variété de blé tendre d'hiver « Renan »[2],[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Aegilops peuvent s'hybrider avec des espèces des genres  Triticum (× Aegilotriticum Wagner ex Tschermak), Secale (× Aegilosecale Ciferri &amp; Giacom.), Dasypyrum, Elytrigia.
+Le genre Aegilops est important dans l’évolution du blé pour son rôle dans deux événements d’hybridation importants. L’engrain sauvage (Triticum dicoccoides et Triticum araraticum) est le résultat de l’hybridation d’un blé sauvage, Triticum urartu, et d’une égilope encore non identifiée, probablement similaire à Aegilops speltoides. Le genre Aegilops a également été utilisé pour transférer par des techniques de transgénèse et d'hybridation, des fragments chromosomiques de résistance à plusieurs maladies, dont la rouille brune du blé et l'oïdium du blé, au blé tendre pour créer la variété de blé tendre d'hiver « Renan ».
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89gilope</t>
+          <t>Égilope</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 septembre 2016)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 septembre 2016) :
 Aegilops bicornis (Forssk.) Jaub. &amp; Spach (1851)
 Aegilops biuncialis Vis. (1842)
 Aegilops caudata L. (1753)
@@ -593,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89gilope</t>
+          <t>Égilope</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,10 +627,12 @@
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan économique, plusieurs espèces d'Aegilops sont d'importantes mauvaises herbes des cultures, notamment Aegilops cylindrica, Aegilops geniculata, Aegilops triuncialis.
-Certaines espèces sont des plantes fourragères utiles dans les pâturages,  par exemple Aegilops cylindrica, Aegilops kotschyi, Aegilops triuncialis[1].
+Certaines espèces sont des plantes fourragères utiles dans les pâturages,  par exemple Aegilops cylindrica, Aegilops kotschyi, Aegilops triuncialis.
 </t>
         </is>
       </c>
